--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_14_39.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_14_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3866219.996442628</v>
+        <v>3863884.885240649</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>143.117545870714</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>85.2564474226714</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>39.15797524740199</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -826,10 +826,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>115.8566875815961</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>115.653228379492</v>
       </c>
       <c r="H5" t="n">
-        <v>197.8572131534436</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
@@ -990,10 +990,10 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H6" t="n">
-        <v>92.83156789269627</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705016</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1054,7 +1054,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1063,16 +1063,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>10.24924571897591</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,13 +1108,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>171.1971464172146</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1142,13 +1142,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>205.5146946421451</v>
+        <v>71.68269007697783</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,7 +1196,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1303,13 +1303,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>74.7576914549238</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -1348,7 +1348,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>26.05155675490728</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634814</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576152</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1525,19 +1525,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>110.0177171766856</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>75.08886905994775</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1667,13 +1667,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1771,19 +1771,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>141.6930519056948</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>53.11937003877868</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2482,16 +2482,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,7 +2716,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2950343703271</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>246.2025596887052</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2849,7 +2849,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701357</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>23.6255456814127</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,10 +3187,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,13 +3199,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>45.66054613217651</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3430,13 +3430,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3478,7 +3478,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,10 +3661,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3676,10 +3676,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>108.9065924712593</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703271</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,25 +4135,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>42.71572132711237</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>514.7427041430119</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="C2" t="n">
-        <v>514.7427041430119</v>
+        <v>922.5193592425333</v>
       </c>
       <c r="D2" t="n">
-        <v>514.7427041430119</v>
+        <v>922.5193592425333</v>
       </c>
       <c r="E2" t="n">
-        <v>514.7427041430119</v>
+        <v>777.9561815953474</v>
       </c>
       <c r="F2" t="n">
-        <v>507.7972033938084</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362819</v>
@@ -4334,10 +4334,10 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4358,7 +4358,7 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.894479532451</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
         <v>1975.31341879663</v>
@@ -4373,7 +4373,7 @@
         <v>1291.481876182945</v>
       </c>
       <c r="Y2" t="n">
-        <v>901.3425442071336</v>
+        <v>1291.481876182945</v>
       </c>
     </row>
     <row r="3">
@@ -4398,37 +4398,37 @@
         <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
         <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>560.1394111735142</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L3" t="n">
-        <v>854.8429682049859</v>
+        <v>662.3527266874009</v>
       </c>
       <c r="M3" t="n">
-        <v>1218.104987164206</v>
+        <v>1025.614745646621</v>
       </c>
       <c r="N3" t="n">
-        <v>1605.390115761151</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O3" t="n">
-        <v>1937.460550937313</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>686.1991671823603</v>
+        <v>535.7199774115534</v>
       </c>
       <c r="C4" t="n">
-        <v>517.2629842544534</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D4" t="n">
-        <v>367.1463448421176</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E4" t="n">
-        <v>219.2332512597245</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F4" t="n">
-        <v>219.2332512597245</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020476</v>
@@ -4510,28 +4510,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1519.41916292137</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1519.41916292137</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1230.300825425208</v>
+        <v>825.137147448514</v>
       </c>
       <c r="V4" t="n">
-        <v>975.6163372193209</v>
+        <v>825.137147448514</v>
       </c>
       <c r="W4" t="n">
-        <v>686.1991671823603</v>
+        <v>535.7199774115534</v>
       </c>
       <c r="X4" t="n">
-        <v>686.1991671823603</v>
+        <v>535.7199774115534</v>
       </c>
       <c r="Y4" t="n">
-        <v>686.1991671823603</v>
+        <v>535.7199774115534</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1042.715325395394</v>
+        <v>864.8611267254482</v>
       </c>
       <c r="C5" t="n">
-        <v>673.752808454982</v>
+        <v>864.8611267254482</v>
       </c>
       <c r="D5" t="n">
-        <v>673.752808454982</v>
+        <v>864.8611267254482</v>
       </c>
       <c r="E5" t="n">
-        <v>673.752808454982</v>
+        <v>479.072874127204</v>
       </c>
       <c r="F5" t="n">
-        <v>262.7669036653744</v>
+        <v>472.1273733780005</v>
       </c>
       <c r="G5" t="n">
-        <v>251.1025574300673</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800308</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800308</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
         <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764996</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723849</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2353.593687005979</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2100.012626270158</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V5" t="n">
-        <v>1768.949738926588</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="W5" t="n">
-        <v>1416.181083656473</v>
+        <v>1624.92672505065</v>
       </c>
       <c r="X5" t="n">
-        <v>1042.715325395394</v>
+        <v>1251.46096678957</v>
       </c>
       <c r="Y5" t="n">
-        <v>1042.715325395394</v>
+        <v>1251.46096678957</v>
       </c>
     </row>
     <row r="6">
@@ -4641,28 +4641,28 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800308</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500112</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>560.1394111735138</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>854.8429682049853</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M6" t="n">
-        <v>1218.104987164205</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N6" t="n">
-        <v>1605.39011576115</v>
+        <v>1565.661695681274</v>
       </c>
       <c r="O6" t="n">
-        <v>1937.460550937311</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>833.0891146802707</v>
+        <v>359.629293016243</v>
       </c>
       <c r="C7" t="n">
-        <v>664.1529317523638</v>
+        <v>359.629293016243</v>
       </c>
       <c r="D7" t="n">
-        <v>514.036292340028</v>
+        <v>209.5126536039072</v>
       </c>
       <c r="E7" t="n">
-        <v>366.1231987576348</v>
+        <v>61.59956002151412</v>
       </c>
       <c r="F7" t="n">
-        <v>219.2332512597245</v>
+        <v>61.59956002151412</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800308</v>
+        <v>61.59956002151412</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800308</v>
+        <v>61.59956002151412</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800308</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312191</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020474</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693231</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096583</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4747,28 +4747,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="U7" t="n">
-        <v>1636.446120074497</v>
+        <v>1244.744376093917</v>
       </c>
       <c r="V7" t="n">
-        <v>1636.446120074497</v>
+        <v>990.0598878880302</v>
       </c>
       <c r="W7" t="n">
-        <v>1463.519709552058</v>
+        <v>990.0598878880302</v>
       </c>
       <c r="X7" t="n">
-        <v>1235.53015865404</v>
+        <v>762.0703369900128</v>
       </c>
       <c r="Y7" t="n">
-        <v>1014.73757951051</v>
+        <v>541.2777578464827</v>
       </c>
     </row>
     <row r="8">
@@ -4778,31 +4778,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2255.174438931364</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="C8" t="n">
-        <v>1886.211921990952</v>
+        <v>942.9472709150252</v>
       </c>
       <c r="D8" t="n">
-        <v>1527.946223384201</v>
+        <v>584.6815723082748</v>
       </c>
       <c r="E8" t="n">
-        <v>1142.157970785957</v>
+        <v>198.8933197100305</v>
       </c>
       <c r="F8" t="n">
-        <v>731.1720659963496</v>
+        <v>191.9478189608271</v>
       </c>
       <c r="G8" t="n">
-        <v>316.0996158413461</v>
+        <v>180.9157728462276</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4811,43 +4811,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.5429342656</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2641.774278995485</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X8" t="n">
-        <v>2641.774278995485</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y8" t="n">
-        <v>2641.774278995485</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>142.0249360836216</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="C10" t="n">
-        <v>142.0249360836216</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="D10" t="n">
-        <v>142.0249360836216</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="E10" t="n">
-        <v>142.0249360836216</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="F10" t="n">
-        <v>142.0249360836216</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G10" t="n">
-        <v>142.0249360836216</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
-        <v>142.0249360836216</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4987,25 +4987,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="V10" t="n">
-        <v>880.2242361621296</v>
+        <v>1300.279904748355</v>
       </c>
       <c r="W10" t="n">
-        <v>590.8070661251691</v>
+        <v>1010.862734711394</v>
       </c>
       <c r="X10" t="n">
-        <v>362.8175152271517</v>
+        <v>782.8731838133765</v>
       </c>
       <c r="Y10" t="n">
-        <v>142.0249360836216</v>
+        <v>562.0806046698464</v>
       </c>
     </row>
     <row r="11">
@@ -5033,28 +5033,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5069,22 +5069,22 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5115,25 +5115,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>95.58405025273903</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>95.58405025273903</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438176</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
         <v>2283.159972732779</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>847.644273983533</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908939</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908939</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
@@ -5197,52 +5197,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1068.436853127063</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>847.644273983533</v>
       </c>
     </row>
     <row r="14">
@@ -5279,16 +5279,16 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5315,10 +5315,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5355,28 +5355,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684176</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5495,10 +5495,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
@@ -5510,28 +5510,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>429.5088224239596</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>924.8344286397182</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M18" t="n">
-        <v>924.8344286397182</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N18" t="n">
-        <v>1552.432392194325</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O18" t="n">
-        <v>2104.342122433612</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.7474797708871</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429803</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5732,13 +5732,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5750,25 +5750,25 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5832,25 +5832,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349511</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429803</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>229.5592957321579</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
@@ -5975,40 +5975,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6063,19 +6063,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N24" t="n">
         <v>1307.627092998424</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6145,52 +6145,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6212,40 +6212,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6312,7 +6312,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N27" t="n">
         <v>1307.627092998424</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121648</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121648</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121648</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
@@ -6382,52 +6382,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1185.011911417804</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6449,52 +6449,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
         <v>3820.749612123003</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6680,28 +6680,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,37 +6710,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,22 +6771,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797189</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438171</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N33" t="n">
         <v>1307.627092998424</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121648</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121648</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121648</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6917,28 +6917,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,10 +6947,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
@@ -7093,52 +7093,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7169,19 +7169,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355937</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429802</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7397,34 +7397,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7567,52 +7567,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7658,16 +7658,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8058,28 +8058,28 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>70.03064962107857</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>249.3877325071647</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>240.4465442417435</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8295,7 +8295,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8304,19 +8304,19 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>224.3355197601772</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>305.1601501039158</v>
       </c>
       <c r="P6" t="n">
-        <v>54.95314511566681</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154995</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>-5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -23413,19 +23413,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>57.22910392194228</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>150.6207863290894</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345294991</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>6.922421112517554</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>112.4047682534902</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345294991</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>57.22910392194174</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>40.32043864788582</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>122.8084169651565</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25075,10 +25075,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,13 +25087,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>119.8635921600923</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25318,19 +25318,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>38.13892827624255</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25549,10 +25549,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>65.54986409393075</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>72.11969353038532</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194174</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>97.57899151911153</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>634077.8302699272</v>
+        <v>634077.830269927</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>634077.8302699272</v>
+        <v>634077.830269927</v>
       </c>
     </row>
     <row r="10">
@@ -26311,31 +26311,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176766</v>
+        <v>800515.7256176763</v>
       </c>
       <c r="C2" t="n">
+        <v>800515.7256176762</v>
+      </c>
+      <c r="D2" t="n">
         <v>800515.7256176763</v>
-      </c>
-      <c r="D2" t="n">
-        <v>800515.7256176757</v>
       </c>
       <c r="E2" t="n">
         <v>786967.9346977555</v>
       </c>
       <c r="F2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="G2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.934697756</v>
       </c>
       <c r="H2" t="n">
         <v>786967.9346977555</v>
       </c>
       <c r="I2" t="n">
-        <v>786967.9346977561</v>
+        <v>786967.9346977556</v>
       </c>
       <c r="J2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.934697756</v>
       </c>
       <c r="K2" t="n">
         <v>786967.9346977556</v>
@@ -26344,16 +26344,16 @@
         <v>786967.9346977556</v>
       </c>
       <c r="M2" t="n">
+        <v>786967.9346977558</v>
+      </c>
+      <c r="N2" t="n">
+        <v>786967.9346977555</v>
+      </c>
+      <c r="O2" t="n">
         <v>786967.9346977561</v>
       </c>
-      <c r="N2" t="n">
-        <v>786967.9346977556</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>786967.9346977557</v>
-      </c>
-      <c r="P2" t="n">
-        <v>786967.934697756</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26369,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403383</v>
+        <v>192627.1404403379</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,7 +26384,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>167605.1778099825</v>
@@ -26393,10 +26393,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.9700081908</v>
+        <v>48293.97000819071</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,43 +26418,43 @@
         <v>136726.2736921025</v>
       </c>
       <c r="C4" t="n">
-        <v>136726.2736921026</v>
+        <v>136726.2736921025</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.23512810789</v>
+        <v>88524.23512810792</v>
       </c>
       <c r="E4" t="n">
-        <v>9337.200356756632</v>
+        <v>9337.200356756552</v>
       </c>
       <c r="F4" t="n">
-        <v>9337.20035675661</v>
+        <v>9337.200356756603</v>
       </c>
       <c r="G4" t="n">
-        <v>9337.200356756613</v>
+        <v>9337.200356756612</v>
       </c>
       <c r="H4" t="n">
-        <v>9337.200356756613</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="I4" t="n">
-        <v>9337.200356756575</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="J4" t="n">
         <v>9337.200356756592</v>
       </c>
       <c r="K4" t="n">
-        <v>9337.200356756555</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="L4" t="n">
-        <v>9337.200356756564</v>
+        <v>9337.200356756613</v>
       </c>
       <c r="M4" t="n">
-        <v>9337.200356756613</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="N4" t="n">
         <v>9337.200356756592</v>
       </c>
       <c r="O4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="P4" t="n">
         <v>9337.200356756592</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984469</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-543900.1040901905</v>
+        <v>-543900.1040901906</v>
       </c>
       <c r="C6" t="n">
-        <v>570851.6794857294</v>
+        <v>570851.6794857292</v>
       </c>
       <c r="D6" t="n">
-        <v>411430.4094878362</v>
+        <v>411430.4094878371</v>
       </c>
       <c r="E6" t="n">
-        <v>351095.7427097365</v>
+        <v>351061.0047843007</v>
       </c>
       <c r="F6" t="n">
-        <v>676508.2045170921</v>
+        <v>676473.4665916568</v>
       </c>
       <c r="G6" t="n">
-        <v>676508.2045170921</v>
+        <v>676473.4665916567</v>
       </c>
       <c r="H6" t="n">
-        <v>676508.2045170919</v>
+        <v>676473.4665916562</v>
       </c>
       <c r="I6" t="n">
-        <v>676508.2045170923</v>
+        <v>676473.4665916563</v>
       </c>
       <c r="J6" t="n">
-        <v>508903.0267071095</v>
+        <v>508868.288781674</v>
       </c>
       <c r="K6" t="n">
-        <v>676508.2045170919</v>
+        <v>676473.4665916563</v>
       </c>
       <c r="L6" t="n">
-        <v>628214.2345089011</v>
+        <v>628179.4965834656</v>
       </c>
       <c r="M6" t="n">
-        <v>591453.1765815807</v>
+        <v>591418.4386561447</v>
       </c>
       <c r="N6" t="n">
-        <v>676508.204517092</v>
+        <v>676473.4665916562</v>
       </c>
       <c r="O6" t="n">
-        <v>676508.2045170921</v>
+        <v>676473.4665916568</v>
       </c>
       <c r="P6" t="n">
-        <v>676508.2045170923</v>
+        <v>676473.4665916564</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26738,7 +26738,7 @@
         <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175388</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000385</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26814,10 +26814,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757595</v>
+        <v>155.7118084757592</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022541</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27039,10 +27039,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022541</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022541</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>238.8128242015478</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>326.2912553502826</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>128.0888458512258</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27546,10 +27546,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>147.2515091551288</v>
@@ -27582,19 +27582,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>78.8057727801414</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>295.8944743934619</v>
       </c>
       <c r="H5" t="n">
-        <v>103.1613394089618</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247055</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,7 +27667,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27774,7 +27774,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27783,16 +27783,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>94.54734948492467</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195737</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
@@ -27828,13 +27828,13 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>115.3258519193764</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>89.0930697451754</v>
+        <v>222.9250743103426</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,7 +27916,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28023,13 +28023,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>21.59472895491429</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,7 +28059,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28068,7 +28068,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>226.0860865689207</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-8.682195192673605e-13</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28141,7 +28141,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28387,13 +28387,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28573,7 +28573,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="18">
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29569,7 +29569,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>-8.038590482916834e-13</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181058</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336176</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491898</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857141</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767378</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730001</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342221</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166591</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190642</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147049</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
         <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745093</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
         <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744846</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,34 +31355,34 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.009120711347159</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
         <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436492</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
-        <v>189.817847557584</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178437</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177241</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040585</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762069</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405672</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378623</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
         <v>256.462496416876</v>
@@ -31391,10 +31391,10 @@
         <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.318536019979</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000169</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
         <v>0.1321789941675763</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.684379313654578</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
-        <v>14.97566335231071</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335768</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682318</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227906</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849626</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
         <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154671</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
-        <v>203.7180217169136</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q7" t="n">
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759582</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523477</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069558</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024981</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>344.2757660550394</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32075,10 +32075,10 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32087,19 +32087,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>193.1175412796309</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,19 +32309,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>441.0292693655512</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32330,13 +32330,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>550.2163373881178</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32552,7 +32552,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>260.1710714068256</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32561,19 +32561,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>616.9033572954396</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>754.0002396832324</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33032,31 +33032,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N27" t="n">
-        <v>754.0002396832324</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>597.1709559744727</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>240.4469701760392</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622658</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460016</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>251.886104915025</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>423.9151577118742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
         <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34211,37 +34211,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>602.4605829984181</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34366,34 +34366,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>263.7590256391499</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34778,28 +34778,28 @@
         <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>367.7110102589288</v>
       </c>
       <c r="M3" t="n">
         <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="O3" t="n">
         <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>490.1260733652758</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225035</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407335</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067505</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457273</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376312</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949724</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637946</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402555</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939893</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091734</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560633</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.68036063785</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820402</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928737</v>
+        <v>615.5326193530511</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961228</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="P6" t="n">
-        <v>304.6326742391989</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870588</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
         <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831068</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468032</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
         <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295068</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818071</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805397</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>212.9340539717061</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35723,10 +35723,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35735,19 +35735,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>61.77582919629761</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35957,19 +35957,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>302.474889585677</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -35978,13 +35978,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>416.2419299737876</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36209,19 +36209,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>485.5616452121063</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>622.6585275998991</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,22 +36680,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N27" t="n">
-        <v>622.6585275998991</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>455.0369220524544</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>101.892590396165</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402476</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243148</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>120.5443928316917</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>285.360777932</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,25 +37862,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>471.1188709150848</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,25 +38099,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>132.4173135558165</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
